--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H2">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N2">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P2">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q2">
-        <v>32513.85402665803</v>
+        <v>36030.58797813171</v>
       </c>
       <c r="R2">
-        <v>32513.85402665803</v>
+        <v>324275.2918031854</v>
       </c>
       <c r="S2">
-        <v>0.3889234012840843</v>
+        <v>0.3774085771592532</v>
       </c>
       <c r="T2">
-        <v>0.3889234012840843</v>
+        <v>0.3774085771592532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H3">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N3">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P3">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q3">
-        <v>186.7935330589547</v>
+        <v>209.1951124388826</v>
       </c>
       <c r="R3">
-        <v>186.7935330589547</v>
+        <v>1882.756011949943</v>
       </c>
       <c r="S3">
-        <v>0.002234382185378437</v>
+        <v>0.002191250106219404</v>
       </c>
       <c r="T3">
-        <v>0.002234382185378437</v>
+        <v>0.002191250106219404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H4">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N4">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P4">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q4">
-        <v>9992.324228829824</v>
+        <v>11601.86482706919</v>
       </c>
       <c r="R4">
-        <v>9992.324228829824</v>
+        <v>104416.7834436227</v>
       </c>
       <c r="S4">
-        <v>0.119525932626244</v>
+        <v>0.1215257241829006</v>
       </c>
       <c r="T4">
-        <v>0.119525932626244</v>
+        <v>0.1215257241829006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H5">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N5">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P5">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q5">
-        <v>308.4664775817943</v>
+        <v>662.3340937800539</v>
       </c>
       <c r="R5">
-        <v>308.4664775817943</v>
+        <v>5961.006844020485</v>
       </c>
       <c r="S5">
-        <v>0.003689806552765759</v>
+        <v>0.006937732131635206</v>
       </c>
       <c r="T5">
-        <v>0.003689806552765759</v>
+        <v>0.006937732131635206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H6">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N6">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P6">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q6">
-        <v>25976.1294266838</v>
+        <v>27469.5275290302</v>
       </c>
       <c r="R6">
-        <v>25976.1294266838</v>
+        <v>247225.7477612718</v>
       </c>
       <c r="S6">
-        <v>0.3107206116056945</v>
+        <v>0.287734280280424</v>
       </c>
       <c r="T6">
-        <v>0.3107206116056945</v>
+        <v>0.287734280280424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H7">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N7">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P7">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q7">
-        <v>149.2340153470782</v>
+        <v>159.4892346349221</v>
       </c>
       <c r="R7">
-        <v>149.2340153470782</v>
+        <v>1435.403111714299</v>
       </c>
       <c r="S7">
-        <v>0.001785103691136693</v>
+        <v>0.001670597358897317</v>
       </c>
       <c r="T7">
-        <v>0.001785103691136693</v>
+        <v>0.001670597358897317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H8">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N8">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P8">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q8">
-        <v>7983.117203782047</v>
+        <v>8845.199680024476</v>
       </c>
       <c r="R8">
-        <v>7983.117203782047</v>
+        <v>79606.79712022028</v>
       </c>
       <c r="S8">
-        <v>0.09549225057105708</v>
+        <v>0.09265056201563039</v>
       </c>
       <c r="T8">
-        <v>0.09549225057105708</v>
+        <v>0.09265056201563039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H9">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N9">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P9">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q9">
-        <v>246.4415673050724</v>
+        <v>504.9599699441228</v>
       </c>
       <c r="R9">
-        <v>246.4415673050724</v>
+        <v>4544.639729497106</v>
       </c>
       <c r="S9">
-        <v>0.002947878541113111</v>
+        <v>0.005289289863786246</v>
       </c>
       <c r="T9">
-        <v>0.002947878541113111</v>
+        <v>0.005289289863786246</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H10">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N10">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P10">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q10">
-        <v>51.69763374563205</v>
+        <v>57.427876605462</v>
       </c>
       <c r="R10">
-        <v>51.69763374563205</v>
+        <v>516.850889449158</v>
       </c>
       <c r="S10">
-        <v>0.0006183954550021928</v>
+        <v>0.0006015381489777293</v>
       </c>
       <c r="T10">
-        <v>0.0006183954550021928</v>
+        <v>0.0006015381489777293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H11">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N11">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P11">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q11">
-        <v>0.2970051981600482</v>
+        <v>0.3334286720743334</v>
       </c>
       <c r="R11">
-        <v>0.2970051981600482</v>
+        <v>3.000858048669</v>
       </c>
       <c r="S11">
-        <v>3.552709308861114E-06</v>
+        <v>3.492555846938985E-06</v>
       </c>
       <c r="T11">
-        <v>3.552709308861114E-06</v>
+        <v>3.492555846938985E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H12">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N12">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P12">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q12">
-        <v>15.88798171469021</v>
+        <v>18.491800968848</v>
       </c>
       <c r="R12">
-        <v>15.88798171469021</v>
+        <v>166.426208719632</v>
       </c>
       <c r="S12">
-        <v>0.0001900484600487637</v>
+        <v>0.0001936955427150069</v>
       </c>
       <c r="T12">
-        <v>0.0001900484600487637</v>
+        <v>0.0001936955427150069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H13">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N13">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P13">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q13">
-        <v>0.4904674471305039</v>
+        <v>1.055670827028333</v>
       </c>
       <c r="R13">
-        <v>0.4904674471305039</v>
+        <v>9.501037443255001</v>
       </c>
       <c r="S13">
-        <v>5.866861172493374E-06</v>
+        <v>1.10578052464509E-05</v>
       </c>
       <c r="T13">
-        <v>5.866861172493374E-06</v>
+        <v>1.10578052464509E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H14">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>162.623562523146</v>
+        <v>169.629438</v>
       </c>
       <c r="N14">
-        <v>162.623562523146</v>
+        <v>508.888314</v>
       </c>
       <c r="O14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484701</v>
       </c>
       <c r="P14">
-        <v>0.7561108497217072</v>
+        <v>0.7428377317484702</v>
       </c>
       <c r="Q14">
-        <v>4668.909262210698</v>
+        <v>7359.976426454674</v>
       </c>
       <c r="R14">
-        <v>4668.909262210698</v>
+        <v>66239.78783809207</v>
       </c>
       <c r="S14">
-        <v>0.05584844137692627</v>
+        <v>0.07709333615981517</v>
       </c>
       <c r="T14">
-        <v>0.05584844137692627</v>
+        <v>0.07709333615981519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H15">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.934279577481839</v>
+        <v>0.9848756666666668</v>
       </c>
       <c r="N15">
-        <v>0.934279577481839</v>
+        <v>2.954627</v>
       </c>
       <c r="O15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="P15">
-        <v>0.004343890357874106</v>
+        <v>0.004312947180081616</v>
       </c>
       <c r="Q15">
-        <v>26.82309073249092</v>
+        <v>42.7323333444959</v>
       </c>
       <c r="R15">
-        <v>26.82309073249092</v>
+        <v>384.5910001004631</v>
       </c>
       <c r="S15">
-        <v>0.0003208517720501141</v>
+        <v>0.0004476071591179559</v>
       </c>
       <c r="T15">
-        <v>0.0003208517720501141</v>
+        <v>0.0004476071591179559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H16">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.9783065596078</v>
+        <v>54.620752</v>
       </c>
       <c r="N16">
-        <v>49.9783065596078</v>
+        <v>163.862256</v>
       </c>
       <c r="O16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="P16">
-        <v>0.2323718608430961</v>
+        <v>0.2391940691454494</v>
       </c>
       <c r="Q16">
-        <v>1434.873119155454</v>
+        <v>2369.91557512103</v>
       </c>
       <c r="R16">
-        <v>1434.873119155454</v>
+        <v>21329.24017608926</v>
       </c>
       <c r="S16">
-        <v>0.01716362918574629</v>
+        <v>0.02482408740420338</v>
       </c>
       <c r="T16">
-        <v>0.01716362918574629</v>
+        <v>0.02482408740420338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H17">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.5428474724094</v>
+        <v>3.118221666666667</v>
       </c>
       <c r="N17">
-        <v>1.5428474724094</v>
+        <v>9.354665000000001</v>
       </c>
       <c r="O17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="P17">
-        <v>0.00717339907732266</v>
+        <v>0.01365525192599884</v>
       </c>
       <c r="Q17">
-        <v>44.29502553226479</v>
+        <v>135.2951364439872</v>
       </c>
       <c r="R17">
-        <v>44.29502553226479</v>
+        <v>1217.656227995885</v>
       </c>
       <c r="S17">
-        <v>0.0005298471222712969</v>
+        <v>0.001417172125330938</v>
       </c>
       <c r="T17">
-        <v>0.0005298471222712969</v>
+        <v>0.001417172125330938</v>
       </c>
     </row>
   </sheetData>
